--- a/data/income_statement/2digits/total/05_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/05_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>05-Mining of coal and lignite</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>05-Mining of coal and lignite</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4566498.59027</v>
+        <v>4567938.570210001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4569638.22743</v>
+        <v>4569665.72779</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5747257.502970001</v>
+        <v>5751434.076649999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5624097.0465</v>
+        <v>5699665.442720001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5308369.88085</v>
+        <v>5340166.83926</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5040788.12396</v>
+        <v>5070474.774300001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4535561.75935</v>
+        <v>4575474.476439999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5289472.96314</v>
+        <v>5290634.451939999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>6823488.623170001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8385693.732030001</v>
+        <v>7240909.15598</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8044121.01525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8204583.727059999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8877348.637</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4532390.903489999</v>
@@ -995,37 +906,42 @@
         <v>4425511.304409999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5400639.8472</v>
+        <v>5404816.42088</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5578286.82537</v>
+        <v>5639630.87618</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5250459.32594</v>
+        <v>5282232.630229999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4972308.36929</v>
+        <v>5000847.825740001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4446211.24514</v>
+        <v>4482994.86778</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5197723.73953</v>
+        <v>5198885.22833</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6740666.62516</v>
+        <v>6740666.625160001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8282138.850110001</v>
+        <v>7137300.80871</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7488789.37817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7646194.22312</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7990974.232</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5474.574809999999</v>
@@ -1037,7 +953,7 @@
         <v>263540.67127</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>25846.85707</v>
+        <v>38895.25104</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>29980.36939</v>
@@ -1060,32 +976,37 @@
       <c r="M7" s="48" t="n">
         <v>440.8053399999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>5065.083</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>28633.11197</v>
+        <v>30073.09191</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>15878.80971</v>
+        <v>15906.31007</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>83076.98450000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>19963.36406</v>
+        <v>21139.3155</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>27930.18552</v>
+        <v>27953.83964</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>66433.29768999999</v>
+        <v>67580.49158</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>70475.35372</v>
+        <v>73604.44817</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>90006.90600999999</v>
@@ -1094,16 +1015,21 @@
         <v>79009.84607000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>99735.51295</v>
+        <v>99788.9783</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>554890.8317400001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>557948.6986</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>881309.322</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>8781.19866</v>
@@ -1115,52 +1041,57 @@
         <v>12147.13298</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7720.594279999999</v>
+        <v>8588.998589999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>19602.7046</v>
+        <v>20355.22926</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>16423.30169</v>
+        <v>16459.96896</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8231.46434</v>
+        <v>8319.13884</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>33728.60561</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>50987.44169000001</v>
+        <v>50987.44169</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1180835.32813</v>
+        <v>28651.69831</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>27743.98572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>27993.20389</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>23887.635</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>7437.748560000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5737.82043</v>
+        <v>5737.820429999999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>9736.977419999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5983.27464</v>
+        <v>6034.99834</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10663.83081</v>
+        <v>10929.85551</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4113.50258</v>
+        <v>4142.43567</v>
       </c>
       <c r="I10" s="48" t="n">
         <v>2996.75244</v>
@@ -1172,16 +1103,21 @@
         <v>43631.55957</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1171536.83393</v>
+        <v>19353.20411</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>14200.57286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14335.99916</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>7822.276</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>556.58606</v>
@@ -1190,10 +1126,10 @@
         <v>970.13562</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>763.5849399999998</v>
+        <v>763.58494</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>684.64017</v>
+        <v>712.9855700000001</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>912.90987</v>
@@ -1202,7 +1138,7 @@
         <v>3019.77054</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1417.48808</v>
+        <v>1505.16258</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>3251.60816</v>
@@ -1211,34 +1147,39 @@
         <v>4863.91609</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4914.41381</v>
+        <v>4914.413810000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7565.17565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7678.723970000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6997.702</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>786.86404</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>612.69917</v>
+        <v>612.6991700000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>1646.57062</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1052.67947</v>
+        <v>1841.01468</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8025.96392</v>
+        <v>8512.463880000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>9290.02857</v>
+        <v>9297.76275</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>3817.22382</v>
@@ -1250,55 +1191,65 @@
         <v>2491.96603</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4384.080390000001</v>
+        <v>4384.08039</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5978.237209999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5978.480759999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>9067.656999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4557717.391609999</v>
+        <v>4559157.37155</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4562317.57221</v>
+        <v>4562345.07257</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5735110.369990001</v>
+        <v>5739286.94367</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5616376.45222</v>
+        <v>5691076.44413</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5288767.17625</v>
+        <v>5319811.61</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5024364.822269999</v>
+        <v>5054014.80534</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4527330.29501</v>
+        <v>4567155.3376</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5255744.357529999</v>
+        <v>5256905.84633</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6772501.181480001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7204858.403899998</v>
+        <v>7212257.457670001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8016377.02953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8176590.52317</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8853461.002</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3705103.71121</v>
@@ -1307,37 +1258,42 @@
         <v>3856087.31021</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4724837.14804</v>
+        <v>4726363.58169</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4455094.78554</v>
+        <v>4512873.514140001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4610905.10938</v>
+        <v>4641123.67793</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4552461.103730001</v>
+        <v>4586534.99822</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4446804.21067</v>
+        <v>4480214.29286</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5409075.185619999</v>
+        <v>5409810.628780001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7029244.088719999</v>
+        <v>7029244.08872</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6312296.54636</v>
+        <v>6319820.839280001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6975252.75117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7121357.891179999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7552569.097</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2282407.79537</v>
@@ -1346,22 +1302,22 @@
         <v>2463786.82006</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3214057.18902</v>
+        <v>3215153.5137</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3061474.46426</v>
+        <v>3104209.18844</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2959194.15418</v>
+        <v>2985311.77874</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2581647.45547</v>
+        <v>2611274.28453</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2416861.97879</v>
+        <v>2433902.12246</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2694684.30114</v>
+        <v>2695301.03371</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3456885.04347</v>
@@ -1370,94 +1326,109 @@
         <v>3967935.88992</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4673230.96449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4809809.92308</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4901315.332</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>781211.3166599999</v>
+        <v>781211.31666</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>717492.26323</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>870010.59474</v>
+        <v>870216.22613</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>878178.15777</v>
+        <v>893184.33277</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1081314.73749</v>
+        <v>1083694.73895</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1231909.15573</v>
+        <v>1235712.51135</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1380624.17707</v>
+        <v>1394149.33947</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1823512.68984</v>
+        <v>1823600.21561</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2545533.321899999</v>
+        <v>2545533.3219</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1028441.40433</v>
+        <v>1028455.57393</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>993294.78039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>995496.0433500001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1316987.727</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>617215.03761</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>662707.2198000001</v>
+        <v>662707.2198</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>630222.3691499999</v>
+        <v>630446.84673</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>439371.7066800001</v>
+        <v>439409.5361</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>556901.9835900001</v>
+        <v>558622.9261199998</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>715964.77597</v>
+        <v>716608.48578</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>636458.3546800001</v>
+        <v>637438.43638</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>880068.41909</v>
+        <v>880068.4190900001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1014903.03481</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1303284.43471</v>
+        <v>1310741.38627</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1276245.4203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1283570.33876</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1304292.83</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>24269.56157</v>
+        <v>24269.56157000001</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>12101.00712</v>
@@ -1475,103 +1446,118 @@
         <v>22939.71656</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>12859.70013</v>
+        <v>14724.39455</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>10809.77555</v>
+        <v>10840.96037</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>11922.68854</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>12634.8174</v>
+        <v>12687.98916</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>32481.58599</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>29973.208</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>852613.6804</v>
+        <v>854053.6603399999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>706230.262</v>
+        <v>706257.7623600002</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1010273.22195</v>
+        <v>1012923.36198</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1161281.66668</v>
+        <v>1178202.92999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>677862.0668700001</v>
+        <v>678687.93207</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>471903.7185400001</v>
+        <v>467479.80712</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>80526.08433999991</v>
+        <v>86941.04474000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>-153330.82809</v>
+        <v>-152904.78245</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>-256742.90724</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>892561.85754</v>
+        <v>892436.6183899998</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1041124.27836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1055232.63199</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1300891.905</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>578410.02563</v>
+        <v>579989.9156600001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>593180.5188600001</v>
+        <v>593385.87864</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>710388.27434</v>
+        <v>711687.6147200001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>752126.9430900001</v>
+        <v>768134.11803</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>727392.7662999999</v>
+        <v>741503.4469200001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>847154.26667</v>
+        <v>857293.1110499999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>812292.54392</v>
+        <v>823922.8254600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>854474.05912</v>
+        <v>855133.8879300001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1069993.91759</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>950696.143</v>
+        <v>950829.4793700001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>968488.5425400001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>973568.3320000001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1121900.702</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1728.23551</v>
@@ -1580,19 +1566,19 @@
         <v>4370.699140000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>5588.98968</v>
+        <v>5836.078789999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3536.62808</v>
+        <v>3536.628079999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5819.97933</v>
+        <v>6272.532039999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8974.561900000001</v>
+        <v>9528.80523</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>6697.962570000001</v>
+        <v>6738.4649</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>12309.16811</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2130.54438</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2637.601</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>141194.01423</v>
@@ -1619,115 +1610,130 @@
         <v>152006.40413</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>208694.79592</v>
+        <v>209715.89077</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>197917.73315</v>
+        <v>207957.86726</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>202106.159</v>
+        <v>208028.01701</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>234094.0182</v>
+        <v>237281.05674</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>227628.58243</v>
+        <v>232854.14748</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>221662.9995</v>
+        <v>222224.43957</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>330397.43658</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>362250.64716</v>
+        <v>362250.6471600001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>335400.8791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>337315.20365</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>391235.602</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>435487.77589</v>
+        <v>437067.6659199999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>436803.41559</v>
+        <v>437008.77537</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>496104.48874</v>
+        <v>496135.6451600001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>550672.58186</v>
+        <v>556639.62269</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>519466.62797</v>
+        <v>527202.89787</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>604085.6865699999</v>
+        <v>610483.2490800001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>577965.99892</v>
+        <v>584330.2130799999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>620501.89151</v>
+        <v>620600.28025</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>734051.27527</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>585643.71858</v>
+        <v>585777.05495</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>630957.1190600001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>634122.58397</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>728027.499</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>274203.6547699999</v>
+        <v>274063.74468</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>113049.74314</v>
+        <v>112871.88372</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>299884.9476099999</v>
+        <v>301235.74726</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>409154.72359</v>
+        <v>410068.81196</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-49530.69943000001</v>
+        <v>-62815.51484999993</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-375250.54813</v>
+        <v>-389813.30393</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-731766.45958</v>
+        <v>-736981.78072</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1007804.88721</v>
+        <v>-1008038.67038</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-1326736.82483</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-58134.28545999999</v>
+        <v>-58392.86098</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>72635.73582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>81664.29999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>178991.203</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>276310.8288</v>
@@ -1736,43 +1742,48 @@
         <v>358439.81473</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>457188.2838</v>
+        <v>457013.96388</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>639098.2635899999</v>
+        <v>686671.8106199999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>325795.55573</v>
+        <v>361758.58295</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>368107.86051</v>
+        <v>374524.04359</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>391153.6229</v>
+        <v>412473.53142</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>559036.56494</v>
+        <v>559038.276</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>682089.01408</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>879351.5978999998</v>
+        <v>879405.8777899999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>655801.82911</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>655854.1543099999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>860076.508</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>22318.00252</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>35082.12341000001</v>
+        <v>35082.12340999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>2600.30635</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>2117.23693</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>4588.33116</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>13226.39681</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>25525.24065</v>
@@ -1856,34 +1877,39 @@
         <v>34362.04968</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>31408.47892</v>
+        <v>31680.64787</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>19027.50631</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>49794.04594</v>
+        <v>49795.63794000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>39054.20188</v>
+        <v>39102.62493999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>55682.36966</v>
+        <v>55684.08072</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>83962.70600999999</v>
+        <v>83962.70601000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>196291.6606</v>
+        <v>196338.80097</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>298602.75024</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>298599.14324</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>247876.65</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>753.4775100000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>904.3191099999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>953.018</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>17296.8862</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1156.00735</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2343.886</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2113.53038</v>
@@ -1982,7 +2018,7 @@
         <v>942.82918</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>95.29888</v>
+        <v>96.65715000000002</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>133.11962</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>1097.80851</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>634.359</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>96231.51510999999</v>
+        <v>96231.51511000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>39220.72076</v>
@@ -2012,16 +2053,16 @@
         <v>21166.66072</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>19190.21608</v>
+        <v>39385.52197</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>19310.92171</v>
+        <v>31113.85214</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>23785.97578</v>
+        <v>24168.41704</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>51868.87231</v>
+        <v>57547.2179</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>51678.25781000001</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>66697.47508</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>98946.709</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>11911.04102</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>4.53141</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2917.713</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>95572.80425</v>
@@ -2126,19 +2182,19 @@
         <v>111842.47528</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>360434.62464</v>
+        <v>360260.30472</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>139436.32444</v>
+        <v>166542.39663</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>167707.20256</v>
+        <v>191867.29935</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>167919.58116</v>
+        <v>173951.7309800001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>280700.18901</v>
+        <v>296291.97061</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>446118.34926</v>
@@ -2147,16 +2203,21 @@
         <v>527051.58157</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>558611.55954</v>
+        <v>558618.6990599999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>271995.30367</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>272051.23587</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>506341.923</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>65871.21922</v>
@@ -2168,16 +2229,16 @@
         <v>81276.15096000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>76086.28672999999</v>
+        <v>92690.75044</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>104193.39135</v>
+        <v>128325.19755</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>107094.84092</v>
+        <v>108502.00311</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>162614.77915</v>
+        <v>165557.88309</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>143297.43356</v>
@@ -2186,16 +2247,21 @@
         <v>150904.34182</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>229665.65143</v>
+        <v>229671.71173</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>527405.8981400001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>527405.8981399999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>530632.6360000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>20.6544</v>
@@ -2213,7 +2279,7 @@
         <v>77.78400000000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>69.99901999999999</v>
+        <v>69.99902</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>2429.90637</v>
@@ -2230,14 +2296,19 @@
       <c r="M37" s="48" t="n">
         <v>23.55979</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>99.67700000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5323.88663</v>
+        <v>5323.886630000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>4917.64345</v>
@@ -2246,10 +2317,10 @@
         <v>2473.37503</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8772.02282</v>
+        <v>11197.88768</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2424.98245</v>
+        <v>2490.93745</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>8493.490520000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>249253.88303</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>13534.322</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>33.66127</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>7.90684</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>32443.36154</v>
@@ -2324,34 +2405,39 @@
         <v>49089.16588</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11015.37747</v>
+        <v>23332.47485</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>22439.18975</v>
+        <v>45911.55711</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>23088.45911</v>
+        <v>23999.80225</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>46909.23084999999</v>
+        <v>49355.87903</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>43632.10297999999</v>
+        <v>43632.10298</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>35484.05679</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>161736.14423</v>
+        <v>161742.20453</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>97000.54290999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>97000.54291000002</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>160122.989</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.36582</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1799.17372</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1123.071</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>28049.28956</v>
@@ -2441,34 +2537,39 @@
         <v>29614.01448</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>56220.81264000001</v>
+        <v>58082.31411000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>78395.70554</v>
+        <v>78989.18938</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>75442.89227</v>
+        <v>75938.71132</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>90332.4115</v>
+        <v>90828.86726000001</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>69548.42856999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>88345.63623999999</v>
+        <v>88345.63624000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>43791.58555999999</v>
+        <v>43791.58556</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>179320.83185</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>355752.375</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>178960.82905</v>
@@ -2477,79 +2578,89 @@
         <v>92534.11693999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>82806.11390000001</v>
+        <v>82919.80468999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>46747.97696</v>
+        <v>68941.84587</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>67665.64760000001</v>
+        <v>107733.10636</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>111883.75159</v>
+        <v>112770.28928</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>143334.07133</v>
+        <v>144415.61351</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>161105.97411</v>
+        <v>161130.36117</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>191712.97586</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>351560.97926</v>
+        <v>351563.06967</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>413283.74579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>421711.02799</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>257084.246</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>111862.45626</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>70640.11707000001</v>
+        <v>70640.11706999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>58868.25135</v>
+        <v>58981.94214</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>40807.57335</v>
+        <v>63001.44226</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>62914.54319</v>
+        <v>102982.00195</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>106383.00427</v>
+        <v>107269.54196</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>127615.95439</v>
+        <v>128697.49657</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>149309.02523</v>
+        <v>149333.41229</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>176828.53207</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>324484.08907</v>
+        <v>324486.1794799999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>403316.2010700001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>411743.48327</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>243352.568</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>67098.37278999999</v>
+        <v>67098.37279000001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>21893.99987</v>
@@ -2558,7 +2669,7 @@
         <v>23937.86255</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5940.403609999999</v>
+        <v>5940.40361</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>4751.10441</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>9967.54472</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>13731.678</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>305682.4353</v>
+        <v>305542.52521</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>331569.22613</v>
+        <v>331391.3667099999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>592990.9665499999</v>
+        <v>594053.75549</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>925418.72349</v>
+        <v>935108.0262699999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>104405.81735</v>
+        <v>62884.76418999992</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-226121.28013</v>
+        <v>-236561.55273</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-646561.68716</v>
+        <v>-634481.7459000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-753171.72994</v>
+        <v>-753428.18911</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-987265.12843</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>239990.68175</v>
+        <v>239778.23541</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-212252.079</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-211598.47183</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>251350.829</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>32641.43011</v>
@@ -2633,37 +2754,42 @@
         <v>28610.19536</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>50616.25587</v>
+        <v>50623.88297999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>68477.90407</v>
+        <v>70019.16028999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>42991.42665000001</v>
+        <v>44137.88634</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>125984.46442</v>
+        <v>130659.26147</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>69195.12616</v>
+        <v>70641.57437999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>88198.93356</v>
+        <v>88255.89853999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>152007.43435</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>81692.21051</v>
+        <v>81778.48941000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>341050.8094500001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>340939.14102</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>126024.845</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2311.74428</v>
@@ -2678,7 +2804,7 @@
         <v>11436.14205</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6580.823649999999</v>
+        <v>6643.9103</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>9268.068640000001</v>
@@ -2693,16 +2819,21 @@
         <v>12089.43365</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4429.1286</v>
+        <v>4429.128600000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>267817.60639</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>267580.84039</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>8170.689</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>30329.68583</v>
@@ -2711,88 +2842,98 @@
         <v>20858.45901</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>35187.63841000001</v>
+        <v>35195.26552</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>57041.76202</v>
+        <v>58583.01824</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>36410.603</v>
+        <v>37493.97604</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>116716.39578</v>
+        <v>121391.19283</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>43842.91552</v>
+        <v>45289.36374</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>84476.05426999999</v>
+        <v>84533.01925</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>139918.0007</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>77263.08190999999</v>
+        <v>77349.36081</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>73233.20306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>73358.30063000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>117854.156</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>110153.82003</v>
+        <v>110176.92245</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>84539.102</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>278160.50919</v>
+        <v>278183.39318</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>196264.95463</v>
+        <v>197311.30252</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>370168.86673</v>
+        <v>370527.7074199999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>459752.38313</v>
+        <v>651843.70291</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>264790.13267</v>
+        <v>273686.3722</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>286092.36886</v>
+        <v>286092.36889</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>336629.1438</v>
+        <v>336629.1438000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>338147.95243</v>
+        <v>338211.45929</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>369438.65237</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>369426.82223</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>325432.411</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2827.0767</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>4319.31498</v>
+        <v>4319.314979999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>12418.784</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>37769.58499999999</v>
+        <v>37769.585</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>23527.35474</v>
@@ -2801,10 +2942,10 @@
         <v>130441.68765</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>76651.38767</v>
+        <v>76661.55858999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>84910.02054000001</v>
+        <v>84910.02054</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>177101.73878</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>177688.56294</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>208377.042</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>65766.03528</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>63378.00769</v>
+        <v>63378.00769000001</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>196252.61436</v>
@@ -2837,10 +2983,10 @@
         <v>74596.73453</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>88496.42166999998</v>
+        <v>88748.12256999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>152106.89415</v>
+        <v>152604.89562</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>148824.16468</v>
@@ -2852,109 +2998,124 @@
         <v>57511.75428</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>111588.77403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>111570.23084</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>64433.617</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>41560.70804999999</v>
+        <v>41583.81047</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>16841.77933</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>69489.11083000001</v>
+        <v>69511.99481999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>51709.62200000001</v>
+        <v>52755.96989</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>272044.77746</v>
+        <v>272403.61815</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>240814.27381</v>
+        <v>432653.8926900001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>36031.85085</v>
+        <v>44419.91799</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>52358.18364</v>
+        <v>52358.18367</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>48832.7588</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>83794.95399000001</v>
+        <v>83858.46084999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>80161.31540000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>80168.02845</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>52621.752</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>228170.0453800001</v>
+        <v>228007.0328700001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>275640.3194900001</v>
+        <v>275462.46007</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>365446.7132299999</v>
+        <v>366494.24529</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>797631.67293</v>
+        <v>807815.8840399999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-222771.62273</v>
+        <v>-263505.05689</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-559889.1988400002</v>
+        <v>-757745.99417</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-842156.6936699999</v>
+        <v>-837526.54372</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-951065.1652399999</v>
+        <v>-951264.6594599999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-1171886.83788</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-16465.06017</v>
+        <v>-16654.73446999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-240639.92192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-240086.15304</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>51943.263</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>43594.3878</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>84541.82669</v>
+        <v>84541.82669000002</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>87105.29258000001</v>
+        <v>87135.38126000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>109035.75828</v>
+        <v>109048.83819</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>111934.28712</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>74904.58881999999</v>
+        <v>74904.58882</v>
       </c>
       <c r="I56" s="47" t="n">
         <v>28207.08221</v>
@@ -2963,7 +3124,7 @@
         <v>39714.53326</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>57234.80839</v>
+        <v>57234.80839000001</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>67969.44098</v>
@@ -2971,47 +3132,55 @@
       <c r="M56" s="47" t="n">
         <v>46999.39742</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="47" t="n">
+        <v>94929.137</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>184575.65758</v>
+        <v>184412.64507</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>191098.4928</v>
+        <v>190920.6333800001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>278341.4206500001</v>
+        <v>279358.8640300001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>688595.9146499998</v>
+        <v>698767.04585</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-334705.90985</v>
+        <v>-375439.3440100001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-634793.78766</v>
+        <v>-832650.5829899999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-870363.77588</v>
+        <v>-865733.6259300001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-990779.6984999998</v>
+        <v>-990979.1927199999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-1229121.64627</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-84434.50115</v>
+        <v>-84624.17545</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-287639.31934</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-287085.55046</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-42985.874</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>420</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>419</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>417</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>371</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>320</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>